--- a/DirectMailing_With_Amazon_Personalize/website/website/MailMerge.xlsx
+++ b/DirectMailing_With_Amazon_Personalize/website/website/MailMerge.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmike/Amazon WorkDocs Drive/My Documents/SA/Content/NPO Mail Merge/website/website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmike/Downloads/nonprofit-samples/DirectMailing_With_Amazon_Personalize/website/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D1DDFC-63CE-C644-88F8-65D09B7BFEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBFC10-30F6-9C4C-83CA-D67CBBBF6BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35260" yWindow="5420" windowWidth="28040" windowHeight="15800" xr2:uid="{3C3E69A7-3DE7-B346-ABBD-8F83251B51F0}"/>
+    <workbookView xWindow="540" yWindow="520" windowWidth="28040" windowHeight="15800" xr2:uid="{3C3E69A7-3DE7-B346-ABBD-8F83251B51F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mailing" sheetId="1" r:id="rId1"/>
     <sheet name="Interactions" sheetId="2" r:id="rId2"/>
-    <sheet name="Categories" sheetId="3" r:id="rId3"/>
+    <sheet name="RecommendationText" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="70">
   <si>
     <t>First</t>
   </si>
@@ -190,21 +190,6 @@
     <t>user_29</t>
   </si>
   <si>
-    <t>Thanks for wanting to get involved in our mission</t>
-  </si>
-  <si>
-    <t>Here's a link for a bunch of events, some of which might be of interest to you</t>
-  </si>
-  <si>
-    <t>I see you've donated in the past. Here's another opportunity to contribute to our mission</t>
-  </si>
-  <si>
-    <t>We have lots of member benefits, including big savings in our online store</t>
-  </si>
-  <si>
-    <t>Read the latest news about what we're doing to make the world better!</t>
-  </si>
-  <si>
     <t>Seattle</t>
   </si>
   <si>
@@ -244,10 +229,22 @@
     <t>WA</t>
   </si>
   <si>
-    <t>CATEGORY</t>
+    <t>TEXT</t>
   </si>
   <si>
-    <t>TEXT</t>
+    <t>Thanks for wanting to get involved in our mission. There are many ways you can get involved, including ….</t>
+  </si>
+  <si>
+    <t>You can read more about our current events on our website. Simply go to our webpage and click on the "Events" link.</t>
+  </si>
+  <si>
+    <t>Thank you for wanting to support our on-going mission. To help us further our mission, please contribute by going to ….</t>
+  </si>
+  <si>
+    <t>So you're interested in member benefits? We have a lot of great services that youc an learn about by going to….</t>
+  </si>
+  <si>
+    <t>Here are some recent news items happening with our organization that you might be interested in ….</t>
   </si>
 </sst>
 </file>
@@ -653,19 +650,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>98101</v>
@@ -676,22 +673,22 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>98101</v>
@@ -705,19 +702,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>98101</v>
@@ -731,19 +728,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>98101</v>
@@ -757,19 +754,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <v>98101</v>
@@ -33811,7 +33808,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33821,10 +33818,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -33832,7 +33829,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -33840,7 +33837,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -33848,7 +33845,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -33856,7 +33853,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -33864,7 +33861,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
